--- a/AnyLogistixParser/bin/Debug/net8.0/Updated_Scenario from Template 16_12_43 test.xlsx
+++ b/AnyLogistixParser/bin/Debug/net8.0/Updated_Scenario from Template 16_12_43 test.xlsx
@@ -4583,7 +4583,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C17" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>93</x:v>
@@ -5210,7 +5210,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C62" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
         <x:v>122</x:v>
@@ -5238,7 +5238,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C64" s="0">
-        <x:v>-10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>122</x:v>
@@ -5932,7 +5932,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C114" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
         <x:v>144</x:v>
@@ -7860,7 +7860,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C253" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D253" s="0" t="s">
         <x:v>268</x:v>
@@ -7888,7 +7888,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C255" s="0">
-        <x:v>-10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D255" s="0" t="s">
         <x:v>268</x:v>
@@ -9310,7 +9310,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C357" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D357" s="0" t="s">
         <x:v>336</x:v>
@@ -9338,7 +9338,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C359" s="0">
-        <x:v>-10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D359" s="0" t="s">
         <x:v>336</x:v>
@@ -10018,7 +10018,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C408" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D408" s="0" t="s">
         <x:v>242</x:v>
@@ -10088,7 +10088,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C413" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D413" s="0" t="s">
         <x:v>288</x:v>
@@ -10158,7 +10158,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C418" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D418" s="0" t="s">
         <x:v>310</x:v>
@@ -10228,7 +10228,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C423" s="0">
-        <x:v>0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D423" s="0" t="s">
         <x:v>356</x:v>

--- a/AnyLogistixParser/bin/Debug/net8.0/Updated_Scenario from Template 16_12_43 test.xlsx
+++ b/AnyLogistixParser/bin/Debug/net8.0/Updated_Scenario from Template 16_12_43 test.xlsx
@@ -4457,7 +4457,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C8" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>87</x:v>
@@ -4471,7 +4471,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C9" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>87</x:v>
@@ -4569,7 +4569,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C16" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>384</x:v>
@@ -4597,7 +4597,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C18" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>95</x:v>
@@ -4611,7 +4611,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C19" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>91</x:v>
@@ -4625,7 +4625,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C20" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>100</x:v>
@@ -4639,7 +4639,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C21" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>87</x:v>
@@ -4653,7 +4653,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C22" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>87</x:v>
@@ -4667,7 +4667,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C23" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
         <x:v>87</x:v>
@@ -4681,7 +4681,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C24" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>384</x:v>
@@ -4695,7 +4695,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C25" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>384</x:v>
@@ -4709,7 +4709,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C26" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>102</x:v>
@@ -4723,7 +4723,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C27" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>384</x:v>
@@ -4737,7 +4737,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C28" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>106</x:v>
@@ -4751,7 +4751,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C29" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>108</x:v>
@@ -4765,7 +4765,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C30" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>110</x:v>
@@ -4779,7 +4779,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C31" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>102</x:v>
@@ -5129,7 +5129,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C56" s="0">
-        <x:v>92</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
         <x:v>114</x:v>
@@ -5143,7 +5143,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C57" s="0">
-        <x:v>0.027</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
         <x:v>116</x:v>
@@ -5157,7 +5157,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C58" s="0">
-        <x:v>300</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>118</x:v>
@@ -5171,7 +5171,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C59" s="0">
-        <x:v>500</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
         <x:v>118</x:v>
@@ -5196,7 +5196,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C61" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>127</x:v>
@@ -5224,7 +5224,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C63" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
         <x:v>120</x:v>
@@ -5252,7 +5252,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C65" s="0">
-        <x:v>10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
         <x:v>120</x:v>
@@ -5266,7 +5266,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C66" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>129</x:v>
@@ -5280,7 +5280,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C67" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>120</x:v>
@@ -5294,7 +5294,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C68" s="0">
-        <x:v>0</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
         <x:v>131</x:v>
@@ -5308,7 +5308,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C69" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>131</x:v>
@@ -5322,7 +5322,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C70" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
         <x:v>120</x:v>
@@ -5336,7 +5336,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C71" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
         <x:v>138</x:v>
@@ -5350,7 +5350,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C72" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
         <x:v>124</x:v>
@@ -5364,7 +5364,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C73" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
         <x:v>136</x:v>
@@ -5389,7 +5389,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C75" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>127</x:v>
@@ -5414,7 +5414,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C77" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>127</x:v>
@@ -5652,7 +5652,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C94" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
         <x:v>140</x:v>
@@ -5666,7 +5666,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C95" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>140</x:v>
@@ -5764,7 +5764,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C102" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
         <x:v>140</x:v>
@@ -5778,7 +5778,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C103" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
         <x:v>140</x:v>
@@ -5792,7 +5792,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C104" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
         <x:v>140</x:v>
@@ -5806,7 +5806,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C105" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
         <x:v>388</x:v>
@@ -5820,7 +5820,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C106" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
         <x:v>388</x:v>
@@ -5834,7 +5834,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C107" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
         <x:v>150</x:v>
@@ -5848,7 +5848,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C108" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
         <x:v>388</x:v>
@@ -5862,7 +5862,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C109" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
         <x:v>154</x:v>
@@ -5876,7 +5876,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C110" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
         <x:v>156</x:v>
@@ -5890,7 +5890,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C111" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
         <x:v>150</x:v>
@@ -5904,7 +5904,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C112" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
         <x:v>158</x:v>
@@ -5918,7 +5918,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C113" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
         <x:v>388</x:v>
@@ -5946,7 +5946,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C115" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
         <x:v>146</x:v>
@@ -5960,7 +5960,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C116" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
         <x:v>142</x:v>
@@ -5974,7 +5974,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C117" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
         <x:v>148</x:v>
@@ -7188,7 +7188,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C205" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
         <x:v>238</x:v>
@@ -7202,7 +7202,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C206" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>238</x:v>
@@ -7300,7 +7300,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C213" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
         <x:v>238</x:v>
@@ -7314,7 +7314,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C214" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
         <x:v>238</x:v>
@@ -7328,7 +7328,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C215" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
         <x:v>238</x:v>
@@ -7342,7 +7342,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C216" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
         <x:v>405</x:v>
@@ -7356,7 +7356,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C217" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
         <x:v>405</x:v>
@@ -7370,7 +7370,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C218" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
         <x:v>405</x:v>
@@ -7384,7 +7384,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C219" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
         <x:v>248</x:v>
@@ -7398,7 +7398,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C220" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
         <x:v>254</x:v>
@@ -7412,7 +7412,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C221" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
         <x:v>252</x:v>
@@ -7426,7 +7426,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C222" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
         <x:v>256</x:v>
@@ -7440,7 +7440,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C223" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
         <x:v>248</x:v>
@@ -7790,7 +7790,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C248" s="0">
-        <x:v>92</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
         <x:v>260</x:v>
@@ -7804,7 +7804,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C249" s="0">
-        <x:v>0.027</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
         <x:v>262</x:v>
@@ -7818,7 +7818,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C250" s="0">
-        <x:v>300</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
         <x:v>264</x:v>
@@ -7832,7 +7832,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C251" s="0">
-        <x:v>500</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
         <x:v>264</x:v>
@@ -7846,7 +7846,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C252" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D252" s="0" t="s">
         <x:v>266</x:v>
@@ -7874,7 +7874,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C254" s="0">
-        <x:v>10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
         <x:v>266</x:v>
@@ -7902,7 +7902,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C256" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
         <x:v>266</x:v>
@@ -7916,7 +7916,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C257" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D257" s="0" t="s">
         <x:v>273</x:v>
@@ -7930,7 +7930,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C258" s="0">
-        <x:v>0</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D258" s="0" t="s">
         <x:v>275</x:v>
@@ -7944,7 +7944,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C259" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D259" s="0" t="s">
         <x:v>275</x:v>
@@ -7958,7 +7958,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C260" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D260" s="0" t="s">
         <x:v>280</x:v>
@@ -7972,7 +7972,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C261" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
         <x:v>266</x:v>
@@ -7986,7 +7986,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C262" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D262" s="0" t="s">
         <x:v>282</x:v>
@@ -8000,7 +8000,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C263" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D263" s="0" t="s">
         <x:v>270</x:v>
@@ -8014,7 +8014,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C264" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D264" s="0" t="s">
         <x:v>271</x:v>
@@ -8050,7 +8050,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C267" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D267" s="0" t="s">
         <x:v>271</x:v>
@@ -8288,7 +8288,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C284" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D284" s="0" t="s">
         <x:v>284</x:v>
@@ -8302,7 +8302,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C285" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D285" s="0" t="s">
         <x:v>284</x:v>
@@ -8400,7 +8400,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C292" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D292" s="0" t="s">
         <x:v>284</x:v>
@@ -8414,7 +8414,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C293" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D293" s="0" t="s">
         <x:v>284</x:v>
@@ -8428,7 +8428,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C294" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D294" s="0" t="s">
         <x:v>284</x:v>
@@ -8442,7 +8442,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C295" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D295" s="0" t="s">
         <x:v>407</x:v>
@@ -8456,7 +8456,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C296" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D296" s="0" t="s">
         <x:v>407</x:v>
@@ -8470,7 +8470,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C297" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D297" s="0" t="s">
         <x:v>294</x:v>
@@ -8484,7 +8484,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C298" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D298" s="0" t="s">
         <x:v>407</x:v>
@@ -8498,7 +8498,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C299" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D299" s="0" t="s">
         <x:v>300</x:v>
@@ -8512,7 +8512,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C300" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D300" s="0" t="s">
         <x:v>298</x:v>
@@ -8526,7 +8526,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C301" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D301" s="0" t="s">
         <x:v>294</x:v>
@@ -8540,7 +8540,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C302" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D302" s="0" t="s">
         <x:v>302</x:v>
@@ -8638,7 +8638,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C309" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D309" s="0" t="s">
         <x:v>306</x:v>
@@ -8652,7 +8652,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C310" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D310" s="0" t="s">
         <x:v>306</x:v>
@@ -8750,7 +8750,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C317" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D317" s="0" t="s">
         <x:v>306</x:v>
@@ -8764,7 +8764,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C318" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D318" s="0" t="s">
         <x:v>306</x:v>
@@ -8778,7 +8778,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C319" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D319" s="0" t="s">
         <x:v>306</x:v>
@@ -8792,7 +8792,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C320" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D320" s="0" t="s">
         <x:v>406</x:v>
@@ -8806,7 +8806,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C321" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D321" s="0" t="s">
         <x:v>406</x:v>
@@ -8820,7 +8820,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C322" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D322" s="0" t="s">
         <x:v>316</x:v>
@@ -8834,7 +8834,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C323" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D323" s="0" t="s">
         <x:v>406</x:v>
@@ -8848,7 +8848,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C324" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D324" s="0" t="s">
         <x:v>322</x:v>
@@ -8862,7 +8862,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C325" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D325" s="0" t="s">
         <x:v>320</x:v>
@@ -8876,7 +8876,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C326" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D326" s="0" t="s">
         <x:v>324</x:v>
@@ -8890,7 +8890,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C327" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D327" s="0" t="s">
         <x:v>316</x:v>
@@ -9240,7 +9240,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C352" s="0">
-        <x:v>92</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D352" s="0" t="s">
         <x:v>328</x:v>
@@ -9254,7 +9254,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C353" s="0">
-        <x:v>0.027</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D353" s="0" t="s">
         <x:v>330</x:v>
@@ -9268,7 +9268,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C354" s="0">
-        <x:v>300</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D354" s="0" t="s">
         <x:v>332</x:v>
@@ -9282,7 +9282,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C355" s="0">
-        <x:v>500</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D355" s="0" t="s">
         <x:v>332</x:v>
@@ -9296,7 +9296,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C356" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D356" s="0" t="s">
         <x:v>334</x:v>
@@ -9324,7 +9324,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C358" s="0">
-        <x:v>10</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D358" s="0" t="s">
         <x:v>334</x:v>
@@ -9352,7 +9352,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C360" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D360" s="0" t="s">
         <x:v>341</x:v>
@@ -9366,7 +9366,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C361" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D361" s="0" t="s">
         <x:v>334</x:v>
@@ -9380,7 +9380,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C362" s="0">
-        <x:v>0</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D362" s="0" t="s">
         <x:v>343</x:v>
@@ -9394,7 +9394,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C363" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D363" s="0" t="s">
         <x:v>343</x:v>
@@ -9408,7 +9408,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C364" s="0">
-        <x:v>-1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D364" s="0" t="s">
         <x:v>338</x:v>
@@ -9422,7 +9422,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C365" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D365" s="0" t="s">
         <x:v>350</x:v>
@@ -9436,7 +9436,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C366" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D366" s="0" t="s">
         <x:v>348</x:v>
@@ -9450,7 +9450,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C367" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D367" s="0" t="s">
         <x:v>334</x:v>
@@ -9464,7 +9464,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C368" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D368" s="0" t="s">
         <x:v>339</x:v>
@@ -9489,7 +9489,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C370" s="0">
-        <x:v>1</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D370" s="0" t="s">
         <x:v>339</x:v>
@@ -9738,7 +9738,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C388" s="0">
-        <x:v>31500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D388" s="0" t="s">
         <x:v>352</x:v>
@@ -9752,7 +9752,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C389" s="0">
-        <x:v>46008</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D389" s="0" t="s">
         <x:v>352</x:v>
@@ -9850,7 +9850,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C396" s="0">
-        <x:v>12500</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D396" s="0" t="s">
         <x:v>352</x:v>
@@ -9864,7 +9864,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C397" s="0">
-        <x:v>1000</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D397" s="0" t="s">
         <x:v>352</x:v>
@@ -9878,7 +9878,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C398" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D398" s="0" t="s">
         <x:v>352</x:v>
@@ -9892,7 +9892,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C399" s="0">
-        <x:v>0</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D399" s="0" t="s">
         <x:v>408</x:v>
@@ -9906,7 +9906,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C400" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D400" s="0" t="s">
         <x:v>408</x:v>
@@ -9920,7 +9920,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C401" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D401" s="0" t="s">
         <x:v>362</x:v>
@@ -9934,7 +9934,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C402" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D402" s="0" t="s">
         <x:v>408</x:v>
@@ -9948,7 +9948,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C403" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D403" s="0" t="s">
         <x:v>368</x:v>
@@ -9962,7 +9962,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="C404" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D404" s="0" t="s">
         <x:v>366</x:v>
@@ -9976,7 +9976,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C405" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D405" s="0" t="s">
         <x:v>362</x:v>
@@ -9990,7 +9990,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="C406" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D406" s="0" t="s">
         <x:v>370</x:v>
@@ -10004,7 +10004,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C407" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D407" s="0" t="s">
         <x:v>405</x:v>
@@ -10032,7 +10032,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C409" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D409" s="0" t="s">
         <x:v>240</x:v>
@@ -10046,7 +10046,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C410" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D410" s="0" t="s">
         <x:v>246</x:v>
@@ -10060,7 +10060,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C411" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D411" s="0" t="s">
         <x:v>244</x:v>
@@ -10074,7 +10074,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C412" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D412" s="0" t="s">
         <x:v>407</x:v>
@@ -10102,7 +10102,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C414" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D414" s="0" t="s">
         <x:v>286</x:v>
@@ -10116,7 +10116,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C415" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D415" s="0" t="s">
         <x:v>292</x:v>
@@ -10130,7 +10130,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C416" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D416" s="0" t="s">
         <x:v>290</x:v>
@@ -10144,7 +10144,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C417" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D417" s="0" t="s">
         <x:v>406</x:v>
@@ -10172,7 +10172,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C419" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D419" s="0" t="s">
         <x:v>308</x:v>
@@ -10186,7 +10186,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C420" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D420" s="0" t="s">
         <x:v>314</x:v>
@@ -10200,7 +10200,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C421" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D421" s="0" t="s">
         <x:v>312</x:v>
@@ -10214,7 +10214,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C422" s="0">
-        <x:v>1</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D422" s="0" t="s">
         <x:v>408</x:v>
@@ -10242,7 +10242,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C424" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D424" s="0" t="s">
         <x:v>354</x:v>
@@ -10256,7 +10256,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C425" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D425" s="0" t="s">
         <x:v>360</x:v>
@@ -10270,7 +10270,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="C426" s="0">
-        <x:v>-0.3</x:v>
+        <x:v>44501</x:v>
       </x:c>
       <x:c r="D426" s="0" t="s">
         <x:v>358</x:v>
